--- a/data/MarijuanaApplicants - test data list 1.xlsx
+++ b/data/MarijuanaApplicants - test data list 1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Retailers 11-07" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Retailers 11-07'!$A$1:$L$746</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Retailers 11-07'!$A$1:$K$746</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -5180,7 +5180,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15997,7 +15997,7 @@
       <c r="D807" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L746"/>
+  <autoFilter ref="A1:K746"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/MarijuanaApplicants - test data list 1.xlsx
+++ b/data/MarijuanaApplicants - test data list 1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\CS410-Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="2006">
   <si>
     <t>WA</t>
   </si>
@@ -5092,9 +5097,6 @@
     <t>ELMWAY</t>
   </si>
   <si>
-    <t>BL</t>
-  </si>
-  <si>
     <t>820A</t>
   </si>
   <si>
@@ -5650,27 +5652,18 @@
     <t>STATE 28</t>
   </si>
   <si>
-    <t>U.S. 12</t>
-  </si>
-  <si>
     <t>NESS' CORNER</t>
   </si>
   <si>
     <t>STATE ROUTE 105</t>
   </si>
   <si>
-    <t>MARTIN LUTHER KING JR.</t>
-  </si>
-  <si>
     <t>BOTHELL EVERETT</t>
   </si>
   <si>
     <t>LAKE CITY</t>
   </si>
   <si>
-    <t>C103 &amp; C104</t>
-  </si>
-  <si>
     <t>WAITTS LAKE</t>
   </si>
   <si>
@@ -5710,9 +5703,6 @@
     <t>STATE ROUTE 532</t>
   </si>
   <si>
-    <t>C &amp; D</t>
-  </si>
-  <si>
     <t>EAGLE HARBOR</t>
   </si>
   <si>
@@ -5728,9 +5718,6 @@
     <t>BEAVER VALLEY</t>
   </si>
   <si>
-    <t>J 102</t>
-  </si>
-  <si>
     <t>MAPLE GROVE</t>
   </si>
   <si>
@@ -5776,9 +5763,6 @@
     <t>STATE RT 3</t>
   </si>
   <si>
-    <t>ST. JOHNS</t>
-  </si>
-  <si>
     <t>OLD PACIFIC</t>
   </si>
   <si>
@@ -5890,9 +5874,6 @@
     <t>FIR ISLAND</t>
   </si>
   <si>
-    <t>1 &amp; 4</t>
-  </si>
-  <si>
     <t>C 103</t>
   </si>
   <si>
@@ -5941,9 +5922,6 @@
     <t>NOB HILL</t>
   </si>
   <si>
-    <t>B &amp; C</t>
-  </si>
-  <si>
     <t>VAN GIESEN</t>
   </si>
   <si>
@@ -6041,6 +6019,27 @@
   </si>
   <si>
     <t>14325 1ST AVE S STE B</t>
+  </si>
+  <si>
+    <t>U.S 12</t>
+  </si>
+  <si>
+    <t>102 J</t>
+  </si>
+  <si>
+    <t>C103 C104</t>
+  </si>
+  <si>
+    <t>C D</t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>B C</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -6106,7 +6105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
@@ -6116,6 +6115,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6244,7 +6244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6279,7 +6279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6491,8 +6491,8 @@
   <dimension ref="A1:L807"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G659" sqref="G659"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F747" sqref="F747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6576,7 +6576,7 @@
         <v>1561</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6602,7 +6602,7 @@
         <v>1562</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1652</v>
@@ -6637,7 +6637,7 @@
         <v>1565</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>1620</v>
@@ -6695,10 +6695,10 @@
         <v>1568</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6724,10 +6724,10 @@
         <v>1569</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6782,7 +6782,7 @@
         <v>261</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>1579</v>
@@ -6814,7 +6814,7 @@
         <v>1573</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6840,7 +6840,7 @@
         <v>1574</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6869,7 +6869,7 @@
         <v>1661</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6892,7 +6892,7 @@
         <v>3062</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="H13" s="3">
         <v>16</v>
@@ -6962,10 +6962,10 @@
         <v>1578</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>1620</v>
@@ -6994,7 +6994,7 @@
         <v>36711</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1877</v>
+        <v>1999</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>1579</v>
@@ -7023,10 +7023,10 @@
         <v>1578</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>1564</v>
@@ -7081,7 +7081,7 @@
         <v>1580</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7104,7 +7104,7 @@
         <v>661</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>1661</v>
@@ -7133,10 +7133,10 @@
         <v>1581</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -7226,7 +7226,7 @@
         <v>1583</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -7281,7 +7281,7 @@
         <v>1628</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>1620</v>
@@ -7310,13 +7310,13 @@
         <v>1374</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>1586</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -7345,7 +7345,7 @@
         <v>1634</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>1588</v>
@@ -7374,7 +7374,7 @@
         <v>1589</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>1652</v>
@@ -7409,7 +7409,7 @@
         <v>1567</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>1620</v>
@@ -7441,7 +7441,7 @@
         <v>1592</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>1620</v>
@@ -7473,10 +7473,10 @@
         <v>1593</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>1620</v>
@@ -7511,7 +7511,7 @@
         <v>1661</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -7534,13 +7534,13 @@
         <v>15219</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>1595</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>1596</v>
@@ -7572,10 +7572,10 @@
         <v>1578</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -7601,10 +7601,10 @@
         <v>1578</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>1596</v>
@@ -7636,7 +7636,7 @@
         <v>1598</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -7659,7 +7659,7 @@
         <v>5209</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1880</v>
+        <v>1921</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>1561</v>
@@ -7691,10 +7691,10 @@
         <v>1600</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>1620</v>
@@ -7708,7 +7708,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1402</v>
@@ -7723,7 +7723,7 @@
         <v>19315</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>1579</v>
@@ -7755,19 +7755,19 @@
         <v>10522</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1883</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -7790,7 +7790,7 @@
         <v>10611</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H42" s="3">
         <v>99</v>
@@ -7825,13 +7825,13 @@
         <v>325</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>1602</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -7854,7 +7854,7 @@
         <v>3082</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>1661</v>
@@ -7880,7 +7880,7 @@
         <v>1603</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>1661</v>
@@ -7909,10 +7909,10 @@
         <v>1569</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>1620</v>
@@ -7944,10 +7944,10 @@
         <v>1567</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>1604</v>
@@ -7976,7 +7976,7 @@
         <v>1605</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -8031,7 +8031,7 @@
         <v>7550</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -8054,7 +8054,7 @@
         <v>3014</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>1661</v>
@@ -8086,13 +8086,13 @@
         <v>321</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>1608</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -8147,7 +8147,7 @@
         <v>1611</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -8170,13 +8170,13 @@
         <v>320</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>1612</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>1620</v>
@@ -8205,7 +8205,7 @@
         <v>7656</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>1596</v>
@@ -8240,7 +8240,7 @@
         <v>1613</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -8269,7 +8269,7 @@
         <v>1614</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -8321,13 +8321,13 @@
         <v>1325</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>1593</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>1620</v>
@@ -8408,7 +8408,7 @@
         <v>29</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>1661</v>
@@ -8446,7 +8446,7 @@
         <v>1617</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -8472,7 +8472,7 @@
         <v>1607</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>1620</v>
@@ -8504,7 +8504,7 @@
         <v>1618</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -8530,7 +8530,7 @@
         <v>1619</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>1596</v>
@@ -8562,7 +8562,7 @@
         <v>1652</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>1661</v>
@@ -8573,7 +8573,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1421</v>
@@ -8591,7 +8591,7 @@
         <v>1567</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>1658</v>
@@ -8626,10 +8626,10 @@
         <v>1567</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>1620</v>
@@ -8693,7 +8693,7 @@
         <v>19501</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -8719,10 +8719,10 @@
         <v>1621</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -8745,7 +8745,7 @@
         <v>5463</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>1661</v>
@@ -8774,7 +8774,7 @@
         <v>1567</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>1658</v>
@@ -8812,7 +8812,7 @@
         <v>1672</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -8838,7 +8838,7 @@
         <v>1623</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -8861,7 +8861,7 @@
         <v>841</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>1661</v>
@@ -9012,13 +9012,13 @@
         <v>1215</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>1596</v>
@@ -9050,7 +9050,7 @@
         <v>1625</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>1658</v>
@@ -9079,7 +9079,7 @@
         <v>1626</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>1572</v>
@@ -9117,7 +9117,7 @@
         <v>1661</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>1620</v>
@@ -9146,7 +9146,7 @@
         <v>26207</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>1661</v>
@@ -9175,7 +9175,7 @@
         <v>1652</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -9250,7 +9250,7 @@
         <v>1717</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>1630</v>
@@ -9282,7 +9282,7 @@
         <v>1631</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>1596</v>
@@ -9328,7 +9328,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1384</v>
@@ -9378,10 +9378,10 @@
         <v>1636</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>1620</v>
@@ -9413,16 +9413,16 @@
         <v>1636</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>1897</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -9448,7 +9448,7 @@
         <v>1567</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>1658</v>
@@ -9477,10 +9477,10 @@
         <v>1637</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>1620</v>
@@ -9515,7 +9515,7 @@
         <v>1638</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -9541,10 +9541,10 @@
         <v>1639</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -9570,7 +9570,7 @@
         <v>1425</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -9596,10 +9596,10 @@
         <v>1640</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -9625,7 +9625,7 @@
         <v>1641</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -9654,7 +9654,7 @@
         <v>1642</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -9703,13 +9703,13 @@
         <v>6620</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>1644</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>1620</v>
@@ -9741,7 +9741,7 @@
         <v>1645</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>1620</v>
@@ -9776,7 +9776,7 @@
         <v>1646</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -9842,7 +9842,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1377</v>
@@ -9860,13 +9860,13 @@
         <v>1625</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>1648</v>
@@ -9930,7 +9930,7 @@
         <v>1619</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>1620</v>
@@ -9959,7 +9959,7 @@
         <v>9409</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H114" s="3">
         <v>99</v>
@@ -9994,13 +9994,13 @@
         <v>831</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>1649</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -10023,13 +10023,13 @@
         <v>938</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>1650</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>1620</v>
@@ -10058,13 +10058,13 @@
         <v>938</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>1650</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>1620</v>
@@ -10128,7 +10128,7 @@
         <v>1623</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>1658</v>
@@ -10160,7 +10160,7 @@
         <v>1648</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -10183,10 +10183,10 @@
         <v>4710</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>1596</v>
@@ -10250,13 +10250,13 @@
         <v>6620</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>1644</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>1620</v>
@@ -10320,7 +10320,7 @@
         <v>1655</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>1620</v>
@@ -10355,7 +10355,7 @@
         <v>1656</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -10381,10 +10381,10 @@
         <v>1569</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>1620</v>
@@ -10439,7 +10439,7 @@
         <v>17940</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -10447,7 +10447,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1379</v>
@@ -10494,7 +10494,7 @@
         <v>3212</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>1661</v>
@@ -10523,7 +10523,7 @@
         <v>17905</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -10581,10 +10581,10 @@
         <v>1583</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -10613,7 +10613,7 @@
         <v>1629</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>1620</v>
@@ -10642,10 +10642,10 @@
         <v>19129</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>1620</v>
@@ -10674,10 +10674,10 @@
         <v>19127</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>1673</v>
@@ -10712,7 +10712,7 @@
         <v>1659</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -10738,7 +10738,7 @@
         <v>1660</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>1572</v>
@@ -10764,7 +10764,7 @@
         <v>9034</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>1661</v>
@@ -10790,13 +10790,13 @@
         <v>106</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>1662</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>1620</v>
@@ -10848,13 +10848,13 @@
         <v>7011</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>1593</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>1620</v>
@@ -10883,7 +10883,7 @@
         <v>1421</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>1665</v>
@@ -10924,7 +10924,7 @@
         <v>1666</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>1620</v>
@@ -10959,7 +10959,7 @@
         <v>1667</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -11081,7 +11081,7 @@
         <v>1669</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>1658</v>
@@ -11107,13 +11107,13 @@
         <v>1821</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>1670</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -11139,7 +11139,7 @@
         <v>1619</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -11162,7 +11162,7 @@
         <v>16908</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>1671</v>
@@ -11174,7 +11174,7 @@
         <v>1673</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>1903</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -11197,13 +11197,13 @@
         <v>8600</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -11229,7 +11229,7 @@
         <v>1614</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>1652</v>
@@ -11267,7 +11267,7 @@
         <v>1561</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>1596</v>
@@ -11391,7 +11391,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1457</v>
@@ -11444,7 +11444,7 @@
         <v>1678</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -11473,7 +11473,7 @@
         <v>1679</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -11566,7 +11566,7 @@
         <v>10</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>1661</v>
@@ -11595,7 +11595,7 @@
         <v>1680</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -11624,7 +11624,7 @@
         <v>1681</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -11653,7 +11653,7 @@
         <v>1561</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>1620</v>
@@ -11685,7 +11685,7 @@
         <v>1625</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>1658</v>
@@ -11740,7 +11740,7 @@
         <v>1625</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J172" s="3" t="s">
         <v>1658</v>
@@ -11769,10 +11769,10 @@
         <v>1600</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K173" s="3" t="s">
         <v>1620</v>
@@ -11801,10 +11801,10 @@
         <v>2512</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -11827,7 +11827,7 @@
         <v>7219</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H175" s="3">
         <v>99</v>
@@ -11865,7 +11865,7 @@
         <v>1619</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -11920,7 +11920,7 @@
         <v>20</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>1661</v>
@@ -11949,10 +11949,10 @@
         <v>1639</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>1620</v>
@@ -11981,13 +11981,13 @@
         <v>939</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>1682</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>1683</v>
@@ -12013,13 +12013,13 @@
         <v>4033</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>1637</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>1596</v>
@@ -12051,7 +12051,7 @@
         <v>1641</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -12112,7 +12112,7 @@
         <v>1648</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K184" s="3" t="s">
         <v>1620</v>
@@ -12176,10 +12176,10 @@
         <v>1600</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K186" s="3" t="s">
         <v>1620</v>
@@ -12214,7 +12214,7 @@
         <v>1561</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -12240,10 +12240,10 @@
         <v>1600</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>1620</v>
@@ -12307,7 +12307,7 @@
         <v>19525</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>1579</v>
@@ -12336,10 +12336,10 @@
         <v>21127</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -12362,10 +12362,10 @@
         <v>21127</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>1596</v>
@@ -12426,10 +12426,10 @@
         <v>922</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -12455,10 +12455,10 @@
         <v>1636</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>1620</v>
@@ -12490,10 +12490,10 @@
         <v>1669</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K196" s="3" t="s">
         <v>1620</v>
@@ -12554,7 +12554,7 @@
         <v>1652</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -12638,7 +12638,7 @@
         <v>1687</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K201" s="3" t="s">
         <v>1620</v>
@@ -12667,13 +12667,13 @@
         <v>4978</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -12696,7 +12696,7 @@
         <v>2839</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>1688</v>
@@ -12763,7 +12763,7 @@
         <v>1458</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="I205" s="3" t="s">
         <v>1661</v>
@@ -12798,7 +12798,7 @@
         <v>1645</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -12821,7 +12821,7 @@
         <v>102</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>1634</v>
@@ -12850,7 +12850,7 @@
         <v>1374</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K208" s="3" t="s">
         <v>1620</v>
@@ -12879,13 +12879,13 @@
         <v>932</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -12940,7 +12940,7 @@
         <v>1374</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -12998,7 +12998,7 @@
         <v>1171</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>1579</v>
@@ -13053,10 +13053,10 @@
         <v>13003</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>1691</v>
+        <v>1990</v>
       </c>
       <c r="K215" s="3" t="s">
         <v>1596</v>
@@ -13082,10 +13082,10 @@
         <v>259</v>
       </c>
       <c r="F216" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H216" s="3" t="s">
         <v>1692</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>1693</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>1579</v>
@@ -13111,7 +13111,7 @@
         <v>327</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -13134,7 +13134,7 @@
         <v>18646</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="K218" s="3" t="s">
         <v>1620</v>
@@ -13163,13 +13163,13 @@
         <v>316</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K219" s="3" t="s">
         <v>1620</v>
@@ -13201,10 +13201,10 @@
         <v>1600</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K220" s="3" t="s">
         <v>1596</v>
@@ -13233,10 +13233,10 @@
         <v>21911</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>1572</v>
@@ -13268,7 +13268,7 @@
         <v>17869</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -13294,7 +13294,7 @@
         <v>1648</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>1658</v>
@@ -13326,10 +13326,10 @@
         <v>23441</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -13352,16 +13352,16 @@
         <v>23441</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="K225" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -13384,10 +13384,10 @@
         <v>18420</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>1658</v>
@@ -13419,7 +13419,7 @@
         <v>1611</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -13445,10 +13445,10 @@
         <v>1572</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -13471,19 +13471,19 @@
         <v>16810</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K229" s="3" t="s">
         <v>1596</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -13506,7 +13506,7 @@
         <v>650</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>1634</v>
@@ -13532,13 +13532,13 @@
         <v>28680</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K231" s="3" t="s">
         <v>1620</v>
@@ -13567,10 +13567,10 @@
         <v>5384</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>1661</v>
@@ -13605,10 +13605,10 @@
         <v>1578</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -13634,7 +13634,7 @@
         <v>1572</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>1661</v>
@@ -13669,10 +13669,10 @@
         <v>1572</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K235" s="3" t="s">
         <v>1620</v>
@@ -13704,7 +13704,7 @@
         <v>1387</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J236" s="3" t="s">
         <v>1658</v>
@@ -13771,7 +13771,7 @@
         <v>1567</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>1658</v>
@@ -13835,13 +13835,13 @@
         <v>417</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -13867,7 +13867,7 @@
         <v>1648</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>1658</v>
@@ -13957,7 +13957,7 @@
         <v>10611</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>1661</v>
@@ -13992,16 +13992,16 @@
         <v>230</v>
       </c>
       <c r="G245" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="L245" s="3" t="s">
         <v>1995</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I245" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="L245" s="3" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -14056,7 +14056,7 @@
         <v>2815</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1919</v>
+        <v>1960</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>1661</v>
@@ -14091,10 +14091,10 @@
         <v>1567</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K248" s="3" t="s">
         <v>1620</v>
@@ -14152,7 +14152,7 @@
         <v>1626</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J250" s="3" t="s">
         <v>1572</v>
@@ -14187,7 +14187,7 @@
         <v>1626</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J251" s="3" t="s">
         <v>1572</v>
@@ -14219,7 +14219,7 @@
         <v>7359</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>1579</v>
@@ -14248,13 +14248,13 @@
         <v>2405</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K253" s="3" t="s">
         <v>1620</v>
@@ -14286,7 +14286,7 @@
         <v>1571</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K254" s="3" t="s">
         <v>1620</v>
@@ -14315,7 +14315,7 @@
         <v>3435</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="I255" s="3" t="s">
         <v>1661</v>
@@ -14341,7 +14341,7 @@
         <v>3012</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="I256" s="3" t="s">
         <v>1661</v>
@@ -14376,7 +14376,7 @@
         <v>1669</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J257" s="3" t="s">
         <v>1658</v>
@@ -14408,10 +14408,10 @@
         <v>10105</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J258" s="3" t="s">
         <v>1652</v>
@@ -14472,10 +14472,10 @@
         <v>1471</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -14498,10 +14498,10 @@
         <v>18826</v>
       </c>
       <c r="H261" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I261" s="3" t="s">
         <v>1710</v>
-      </c>
-      <c r="I261" s="3" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -14527,7 +14527,7 @@
         <v>1607</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K262" s="3" t="s">
         <v>1620</v>
@@ -14556,19 +14556,19 @@
         <v>9660</v>
       </c>
       <c r="H263" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L263" s="3" t="s">
         <v>1713</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="J263" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="L263" s="3" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -14591,10 +14591,10 @@
         <v>6101</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I264" s="3" t="s">
         <v>1661</v>
@@ -14603,7 +14603,7 @@
         <v>1620</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -14626,13 +14626,13 @@
         <v>1640</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K265" s="3" t="s">
         <v>1620</v>
@@ -14696,13 +14696,13 @@
         <v>1561</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K267" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -14728,7 +14728,7 @@
         <v>1648</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -14777,13 +14777,13 @@
         <v>1403</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H270" s="3" t="s">
         <v>1593</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K270" s="3" t="s">
         <v>1620</v>
@@ -14797,7 +14797,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>1489</v>
@@ -14815,7 +14815,7 @@
         <v>1493</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K271" s="3" t="s">
         <v>1620</v>
@@ -14850,7 +14850,7 @@
         <v>1561</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K272" s="3" t="s">
         <v>1620</v>
@@ -14879,7 +14879,7 @@
         <v>7466</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="I273" s="3" t="s">
         <v>1579</v>
@@ -14905,19 +14905,19 @@
         <v>2000</v>
       </c>
       <c r="H274" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L274" s="3" t="s">
         <v>1720</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="J274" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K274" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="L274" s="3" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -14943,7 +14943,7 @@
         <v>1619</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K275" s="3" t="s">
         <v>1620</v>
@@ -14972,19 +14972,19 @@
         <v>1940</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K276" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -15007,10 +15007,10 @@
         <v>12827</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I277" s="3" t="s">
         <v>1672</v>
@@ -15036,10 +15036,10 @@
         <v>8202</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="I278" s="3" t="s">
         <v>1579</v>
@@ -15071,13 +15071,13 @@
         <v>26099</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="I279" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -15103,10 +15103,10 @@
         <v>1568</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -15132,10 +15132,10 @@
         <v>1568</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -15164,7 +15164,7 @@
         <v>1661</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -15187,19 +15187,19 @@
         <v>11064</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K283" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -15225,7 +15225,7 @@
         <v>1652</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -15280,10 +15280,10 @@
         <v>2008</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>1661</v>
@@ -15318,7 +15318,7 @@
         <v>1648</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J287" s="3" t="s">
         <v>1658</v>
@@ -15353,7 +15353,7 @@
         <v>1641</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -15376,13 +15376,13 @@
         <v>2424</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H289" s="3" t="s">
         <v>1503</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -15411,7 +15411,7 @@
         <v>1642</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -15434,7 +15434,7 @@
         <v>1209</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="I291" s="3" t="s">
         <v>1579</v>
@@ -15443,7 +15443,7 @@
         <v>1620</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -15498,7 +15498,7 @@
         <v>1619</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -15521,13 +15521,13 @@
         <v>9804</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="I294" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K294" s="3" t="s">
         <v>1620</v>
@@ -15556,13 +15556,13 @@
         <v>4851</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I295" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -15585,13 +15585,13 @@
         <v>315</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -15617,7 +15617,7 @@
         <v>1584</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J297" s="3" t="s">
         <v>1572</v>
@@ -15643,7 +15643,7 @@
         <v>6319</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H298" s="3" t="s">
         <v>1402</v>
@@ -15678,10 +15678,10 @@
         <v>1011</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -15704,16 +15704,16 @@
         <v>613</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K300" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -15736,13 +15736,13 @@
         <v>1570</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K301" s="3" t="s">
         <v>1620</v>
@@ -15774,7 +15774,7 @@
         <v>1652</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I302" s="3" t="s">
         <v>1672</v>
@@ -15800,13 +15800,13 @@
         <v>15340</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K303" s="3" t="s">
         <v>1620</v>
@@ -15835,13 +15835,13 @@
         <v>1315</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H304" s="3" t="s">
         <v>1648</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -15864,13 +15864,13 @@
         <v>1301</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>1666</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -15899,7 +15899,7 @@
         <v>1648</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -15925,7 +15925,7 @@
         <v>1583</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -15948,7 +15948,7 @@
         <v>17410</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="I308" s="3" t="s">
         <v>1561</v>
@@ -15980,7 +15980,7 @@
         <v>12833</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="I309" s="3" t="s">
         <v>1561</v>
@@ -16009,10 +16009,10 @@
         <v>115</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -16035,13 +16035,13 @@
         <v>300</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K311" s="3" t="s">
         <v>1620</v>
@@ -16070,13 +16070,13 @@
         <v>716</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -16102,10 +16102,10 @@
         <v>1600</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -16163,13 +16163,13 @@
         <v>8301</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -16192,7 +16192,7 @@
         <v>8962</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="I316" s="3" t="s">
         <v>1661</v>
@@ -16218,13 +16218,13 @@
         <v>120</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -16247,7 +16247,7 @@
         <v>1040</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I318" s="3" t="s">
         <v>1579</v>
@@ -16273,10 +16273,10 @@
         <v>2118</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -16302,10 +16302,10 @@
         <v>1568</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -16360,7 +16360,7 @@
         <v>19302</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="I322" s="3" t="s">
         <v>1579</v>
@@ -16383,7 +16383,7 @@
         <v>80</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H323" s="3">
         <v>395</v>
@@ -16418,10 +16418,10 @@
         <v>55</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K324" s="3" t="s">
         <v>1620</v>
@@ -16453,13 +16453,13 @@
         <v>1625</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J325" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -16485,7 +16485,7 @@
         <v>1625</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J326" s="3" t="s">
         <v>1658</v>
@@ -16494,7 +16494,7 @@
         <v>1620</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -16517,13 +16517,13 @@
         <v>11013</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="I327" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -16546,13 +16546,13 @@
         <v>6620</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>1644</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K328" s="3" t="s">
         <v>1620</v>
@@ -16581,7 +16581,7 @@
         <v>429</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="I329" s="3" t="s">
         <v>1579</v>
@@ -16633,7 +16633,7 @@
         <v>1658</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="I331" s="3" t="s">
         <v>1661</v>
@@ -16685,7 +16685,7 @@
         <v>1606</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K333" s="3" t="s">
         <v>1620</v>
@@ -16720,7 +16720,7 @@
         <v>1444</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -16749,7 +16749,7 @@
         <v>1681</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -16772,13 +16772,13 @@
         <v>6511</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -16801,13 +16801,13 @@
         <v>3079</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -16830,13 +16830,13 @@
         <v>12525</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I338" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K338" s="3" t="s">
         <v>1620</v>
@@ -16865,13 +16865,13 @@
         <v>12525</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I339" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K339" s="3" t="s">
         <v>1620</v>
@@ -16903,7 +16903,7 @@
         <v>1567</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -16926,10 +16926,10 @@
         <v>3948</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K341" s="3" t="s">
         <v>1596</v>
@@ -16958,10 +16958,10 @@
         <v>2724</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J342" s="3" t="s">
         <v>1658</v>
@@ -16987,7 +16987,7 @@
         <v>11493</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="I343" s="3" t="s">
         <v>1661</v>
@@ -17013,7 +17013,7 @@
         <v>1110</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="I344" s="3" t="s">
         <v>1661</v>
@@ -17045,10 +17045,10 @@
         <v>1562</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -17097,13 +17097,13 @@
         <v>8734</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -17126,7 +17126,7 @@
         <v>12925</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="I348" s="3" t="s">
         <v>1561</v>
@@ -17152,7 +17152,7 @@
         <v>5565</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="I349" s="3" t="s">
         <v>1672</v>
@@ -17169,7 +17169,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>1482</v>
@@ -17184,13 +17184,13 @@
         <v>230</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>1620</v>
@@ -17222,10 +17222,10 @@
         <v>1658</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K351" s="3" t="s">
         <v>1620</v>
@@ -17260,7 +17260,7 @@
         <v>1579</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -17283,13 +17283,13 @@
         <v>17631</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K353" s="3" t="s">
         <v>1620</v>
@@ -17324,7 +17324,7 @@
         <v>1619</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>1620</v>
@@ -17353,7 +17353,7 @@
         <v>412</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H355" s="3" t="s">
         <v>1654</v>
@@ -17382,10 +17382,10 @@
         <v>13985</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J356" s="3" t="s">
         <v>1658</v>
@@ -17411,10 +17411,10 @@
         <v>1350</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -17437,7 +17437,7 @@
         <v>6307</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H358" s="3" t="s">
         <v>1648</v>
@@ -17530,10 +17530,10 @@
         <v>1622</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K361" s="3" t="s">
         <v>1596</v>
@@ -17562,7 +17562,7 @@
         <v>33858</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="K362" s="3" t="s">
         <v>1620</v>
@@ -17623,7 +17623,7 @@
         <v>3620</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I364" s="3" t="s">
         <v>1661</v>
@@ -17652,7 +17652,7 @@
         <v>1562</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J365" s="3" t="s">
         <v>1652</v>
@@ -17719,7 +17719,7 @@
         <v>3715</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I367" s="3" t="s">
         <v>1661</v>
@@ -17748,7 +17748,7 @@
         <v>1638</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -17771,13 +17771,13 @@
         <v>20639</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="I369" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="J369" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K369" s="3" t="s">
         <v>1596</v>
@@ -17806,13 +17806,13 @@
         <v>1739</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="I370" s="3" t="s">
         <v>1634</v>
       </c>
       <c r="J370" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -17835,10 +17835,10 @@
         <v>2600</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I371" s="3" t="s">
         <v>1561</v>
@@ -17870,13 +17870,13 @@
         <v>1762</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="I372" s="3" t="s">
         <v>1634</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -17983,13 +17983,13 @@
         <v>11834</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>1595</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -18012,7 +18012,7 @@
         <v>26207</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="I377" s="3" t="s">
         <v>1661</v>
@@ -18021,7 +18021,7 @@
         <v>1620</v>
       </c>
       <c r="L377" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -18047,10 +18047,10 @@
         <v>1578</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -18137,7 +18137,7 @@
         <v>8921</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I381" s="3" t="s">
         <v>1561</v>
@@ -18163,7 +18163,7 @@
         <v>6309</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I382" s="3" t="s">
         <v>1561</v>
@@ -18250,7 +18250,7 @@
         <v>100</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="I385" s="3" t="s">
         <v>1661</v>
@@ -18282,7 +18282,7 @@
         <v>100</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="I386" s="3" t="s">
         <v>1661</v>
@@ -18314,7 +18314,7 @@
         <v>41711</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="L387" s="3">
         <v>1</v>
@@ -18340,7 +18340,7 @@
         <v>322</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="I388" s="3" t="s">
         <v>1634</v>
@@ -18372,7 +18372,7 @@
         <v>1661</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K389" s="3" t="s">
         <v>1620</v>
@@ -18407,7 +18407,7 @@
         <v>1561</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -18430,10 +18430,10 @@
         <v>17730</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="J391" s="3" t="s">
         <v>1658</v>
@@ -18468,10 +18468,10 @@
         <v>1622</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K392" s="3" t="s">
         <v>1596</v>
@@ -18506,7 +18506,7 @@
         <v>1667</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K393" s="3" t="s">
         <v>1620</v>
@@ -18535,13 +18535,13 @@
         <v>8860</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -18564,10 +18564,10 @@
         <v>2810</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -18622,7 +18622,7 @@
         <v>8411</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="K397" s="3" t="s">
         <v>1620</v>
@@ -18654,7 +18654,7 @@
         <v>1572</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I398" s="3" t="s">
         <v>1661</v>
@@ -18663,7 +18663,7 @@
         <v>1620</v>
       </c>
       <c r="L398" s="3" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -18686,13 +18686,13 @@
         <v>1912</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="I399" s="3" t="s">
         <v>1672</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="L399" s="3">
         <v>202</v>
@@ -18718,13 +18718,13 @@
         <v>517</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J400" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K400" s="3" t="s">
         <v>1620</v>
@@ -18785,7 +18785,7 @@
         <v>1492</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K402" s="3" t="s">
         <v>1620</v>
@@ -18817,7 +18817,7 @@
         <v>1623</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K403" s="3" t="s">
         <v>1620</v>
@@ -18831,7 +18831,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1465</v>
@@ -18887,7 +18887,7 @@
         <v>1492</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -18910,7 +18910,7 @@
         <v>2615</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="I406" s="3" t="s">
         <v>1579</v>
@@ -18942,10 +18942,10 @@
         <v>1640</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J407" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -18968,13 +18968,13 @@
         <v>9601</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="I408" s="3" t="s">
         <v>1634</v>
       </c>
       <c r="J408" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -19003,7 +19003,7 @@
         <v>1579</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K409" s="3" t="s">
         <v>1620</v>
@@ -19061,7 +19061,7 @@
         <v>11414</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H411" s="3" t="s">
         <v>1536</v>
@@ -19093,10 +19093,10 @@
         <v>1652</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -19148,10 +19148,10 @@
         <v>1569</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K414" s="3" t="s">
         <v>1620</v>
@@ -19186,7 +19186,7 @@
         <v>1648</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K415" s="3" t="s">
         <v>1620</v>
@@ -19221,7 +19221,7 @@
         <v>1611</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K416" s="3" t="s">
         <v>1620</v>
@@ -19250,13 +19250,13 @@
         <v>10333</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="I417" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="L417" s="3">
         <v>101</v>
@@ -19282,13 +19282,13 @@
         <v>4912</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J418" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K418" s="3" t="s">
         <v>1620</v>
@@ -19317,10 +19317,10 @@
         <v>350</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I419" s="3" t="s">
         <v>1561</v>
@@ -19355,7 +19355,7 @@
         <v>1619</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -19378,13 +19378,13 @@
         <v>16219</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H421" s="3" t="s">
         <v>1681</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K421" s="3" t="s">
         <v>1620</v>
@@ -19413,7 +19413,7 @@
         <v>945</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I422" s="3" t="s">
         <v>1561</v>
@@ -19448,7 +19448,7 @@
         <v>1652</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -19471,13 +19471,13 @@
         <v>9506</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J424" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -19500,16 +19500,16 @@
         <v>24090</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="K425" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L425" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -19564,13 +19564,13 @@
         <v>1215</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K427" s="3" t="s">
         <v>1620</v>
@@ -19631,13 +19631,13 @@
         <v>1123</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="I429" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -19663,7 +19663,7 @@
         <v>1511</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J430" s="3" t="s">
         <v>1652</v>
@@ -19689,13 +19689,13 @@
         <v>6039</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -19718,10 +19718,10 @@
         <v>530</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K432" s="3" t="s">
         <v>1620</v>
@@ -19756,7 +19756,7 @@
         <v>1617</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -19779,13 +19779,13 @@
         <v>16204</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K434" s="3" t="s">
         <v>1620</v>
@@ -19814,10 +19814,10 @@
         <v>13513</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="I435" s="3" t="s">
         <v>1672</v>
@@ -19852,10 +19852,10 @@
         <v>1572</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -19878,13 +19878,13 @@
         <v>2829</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H437" s="3" t="s">
         <v>1644</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -19910,10 +19910,10 @@
         <v>1652</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -19939,7 +19939,7 @@
         <v>1641</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -19962,7 +19962,7 @@
         <v>10611</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I440" s="3" t="s">
         <v>1661</v>
@@ -19994,7 +19994,7 @@
         <v>1641</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K441" s="3" t="s">
         <v>1620</v>
@@ -20026,7 +20026,7 @@
         <v>1641</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K442" s="3" t="s">
         <v>1620</v>
@@ -20058,10 +20058,10 @@
         <v>1600</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K443" s="3" t="s">
         <v>1620</v>
@@ -20125,16 +20125,16 @@
         <v>1520</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J445" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="K445" s="3" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="L445" s="3" t="s">
         <v>1566</v>
@@ -20160,19 +20160,19 @@
         <v>1520</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J446" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="K446" s="3" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="L446" s="3" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -20191,11 +20191,11 @@
       <c r="E447" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F447" s="3">
-        <v>0</v>
+      <c r="F447" s="5" t="s">
+        <v>2005</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="I447" s="3" t="s">
         <v>1661</v>
@@ -20221,7 +20221,7 @@
         <v>5675</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="K448" s="3" t="s">
         <v>1620</v>
@@ -20253,10 +20253,10 @@
         <v>1568</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J449" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K449" s="3" t="s">
         <v>1620</v>
@@ -20285,10 +20285,10 @@
         <v>536</v>
       </c>
       <c r="H450" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I450" s="3" t="s">
         <v>1710</v>
-      </c>
-      <c r="I450" s="3" t="s">
-        <v>1711</v>
       </c>
       <c r="K450" s="3" t="s">
         <v>1620</v>
@@ -20320,7 +20320,7 @@
         <v>1374</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K451" s="3" t="s">
         <v>1620</v>
@@ -20352,7 +20352,7 @@
         <v>1611</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -20375,13 +20375,13 @@
         <v>1335</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -20404,10 +20404,10 @@
         <v>300</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -20459,7 +20459,7 @@
         <v>10825</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I456" s="3" t="s">
         <v>1561</v>
@@ -20497,10 +20497,10 @@
         <v>1658</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -20523,10 +20523,10 @@
         <v>51</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K458" s="3" t="s">
         <v>1596</v>
@@ -20561,7 +20561,7 @@
         <v>1643</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K459" s="3" t="s">
         <v>1620</v>
@@ -20590,7 +20590,7 @@
         <v>1209</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="I460" s="3" t="s">
         <v>1579</v>
@@ -20599,7 +20599,7 @@
         <v>1620</v>
       </c>
       <c r="L460" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -20625,7 +20625,7 @@
         <v>1652</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I461" s="3" t="s">
         <v>1561</v>
@@ -20660,7 +20660,7 @@
         <v>17929</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="K462" s="3" t="s">
         <v>1620</v>
@@ -20724,7 +20724,7 @@
         <v>29393</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="J464" s="3" t="s">
         <v>1652</v>
@@ -20756,10 +20756,10 @@
         <v>2870</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K465" s="3" t="s">
         <v>1673</v>
@@ -20788,10 +20788,10 @@
         <v>1410</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -20814,13 +20814,13 @@
         <v>4316</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -20892,7 +20892,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>1378</v>
@@ -20907,7 +20907,7 @@
         <v>12811</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I470" s="3" t="s">
         <v>1661</v>
@@ -20945,7 +20945,7 @@
         <v>1567</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J471" s="3" t="s">
         <v>1658</v>
@@ -20977,10 +20977,10 @@
         <v>51</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K472" s="3" t="s">
         <v>1596</v>
@@ -21012,16 +21012,16 @@
         <v>1567</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J473" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K473" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L473" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -21044,7 +21044,7 @@
         <v>476</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -21070,10 +21070,10 @@
         <v>1572</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K475" s="3" t="s">
         <v>1620</v>
@@ -21105,10 +21105,10 @@
         <v>1652</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -21134,10 +21134,10 @@
         <v>1652</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -21163,7 +21163,7 @@
         <v>1648</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J478" s="3" t="s">
         <v>1658</v>
@@ -21192,10 +21192,10 @@
         <v>457</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="I479" s="3" t="s">
         <v>1677</v>
@@ -21221,10 +21221,10 @@
         <v>210</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K480" s="3" t="s">
         <v>1620</v>
@@ -21288,7 +21288,7 @@
         <v>4950</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="I482" s="3" t="s">
         <v>1661</v>
@@ -21314,10 +21314,10 @@
         <v>774</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K483" s="3" t="s">
         <v>1620</v>
@@ -21349,7 +21349,7 @@
         <v>1652</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="I484" s="3" t="s">
         <v>1661</v>
@@ -21410,7 +21410,7 @@
         <v>1652</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I486" s="3" t="s">
         <v>1561</v>
@@ -21436,7 +21436,7 @@
         <v>9506</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I487" s="3" t="s">
         <v>1661</v>
@@ -21465,7 +21465,7 @@
         <v>11522</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I488" s="3" t="s">
         <v>1661</v>
@@ -21494,13 +21494,13 @@
         <v>9326</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J489" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K489" s="3" t="s">
         <v>1620</v>
@@ -21529,10 +21529,10 @@
         <v>350</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I490" s="3" t="s">
         <v>1561</v>
@@ -21564,13 +21564,13 @@
         <v>1212</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -21622,13 +21622,13 @@
         <v>12402</v>
       </c>
       <c r="H493" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J493" s="3" t="s">
         <v>1796</v>
-      </c>
-      <c r="I493" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="J493" s="3" t="s">
-        <v>1797</v>
       </c>
       <c r="K493" s="3" t="s">
         <v>1620</v>
@@ -21660,10 +21660,10 @@
         <v>1600</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J494" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -21686,13 +21686,13 @@
         <v>391</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H495" s="3" t="s">
         <v>1374</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K495" s="3" t="s">
         <v>1620</v>
@@ -21727,7 +21727,7 @@
         <v>1619</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K496" s="3" t="s">
         <v>1620</v>
@@ -21756,10 +21756,10 @@
         <v>21236</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J497" s="3" t="s">
         <v>1658</v>
@@ -21791,7 +21791,7 @@
         <v>1648</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -21814,7 +21814,7 @@
         <v>46</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="I499" s="3" t="s">
         <v>1634</v>
@@ -21843,16 +21843,16 @@
         <v>1578</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J500" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K500" s="3" t="s">
         <v>1596</v>
       </c>
       <c r="L500" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21875,13 +21875,13 @@
         <v>1416</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="H501" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K501" s="3" t="s">
         <v>1620</v>
@@ -21916,7 +21916,7 @@
         <v>1619</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K502" s="3" t="s">
         <v>1620</v>
@@ -21945,13 +21945,13 @@
         <v>4800</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J503" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K503" s="3" t="s">
         <v>1620</v>
@@ -22012,7 +22012,7 @@
         <v>1561</v>
       </c>
       <c r="J505" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -22035,7 +22035,7 @@
         <v>5602</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="K506" s="3" t="s">
         <v>1620</v>
@@ -22064,13 +22064,13 @@
         <v>625</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H507" s="3" t="s">
         <v>1682</v>
       </c>
       <c r="I507" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -22093,13 +22093,13 @@
         <v>6733</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="I508" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="J508" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -22122,10 +22122,10 @@
         <v>8040</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="I509" s="3" t="s">
         <v>1661</v>
@@ -22134,10 +22134,10 @@
         <v>1572</v>
       </c>
       <c r="K509" s="3" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="L509" s="3" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -22160,10 +22160,10 @@
         <v>124</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -22186,10 +22186,10 @@
         <v>21236</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J511" s="3" t="s">
         <v>1658</v>
@@ -22218,7 +22218,7 @@
         <v>1571</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J512" s="3" t="s">
         <v>1658</v>
@@ -22250,13 +22250,13 @@
         <v>8296</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="I513" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J513" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K513" s="3" t="s">
         <v>1620</v>
@@ -22291,7 +22291,7 @@
         <v>1561</v>
       </c>
       <c r="J514" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -22320,7 +22320,7 @@
         <v>1617</v>
       </c>
       <c r="I515" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -22343,13 +22343,13 @@
         <v>1628</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J516" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K516" s="3" t="s">
         <v>1620</v>
@@ -22378,13 +22378,13 @@
         <v>1058</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H517" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="I517" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -22407,13 +22407,13 @@
         <v>4465</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J518" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -22436,7 +22436,7 @@
         <v>13724</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I519" s="3" t="s">
         <v>1661</v>
@@ -22465,10 +22465,10 @@
         <v>1703</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="I520" s="3" t="s">
         <v>1661</v>
@@ -22500,10 +22500,10 @@
         <v>816</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I521" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J521" s="3" t="s">
         <v>1652</v>
@@ -22529,13 +22529,13 @@
         <v>26011</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="I522" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J522" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -22558,7 +22558,7 @@
         <v>18729</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="I523" s="3" t="s">
         <v>1661</v>
@@ -22590,16 +22590,16 @@
         <v>5200</v>
       </c>
       <c r="H524" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I524" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J524" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L524" s="3" t="s">
         <v>1811</v>
-      </c>
-      <c r="I524" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="J524" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="L524" s="3" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -22680,19 +22680,19 @@
         <v>9451</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="I527" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J527" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K527" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L527" s="3" t="s">
-        <v>1957</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22747,10 +22747,10 @@
         <v>4218</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22776,10 +22776,10 @@
         <v>1572</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I530" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22819,7 +22819,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>1476</v>
@@ -22834,10 +22834,10 @@
         <v>22002</v>
       </c>
       <c r="H532" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J532" s="3" t="s">
         <v>1572</v>
@@ -22875,7 +22875,7 @@
         <v>1611</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22898,7 +22898,7 @@
         <v>20925</v>
       </c>
       <c r="H534" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="I534" s="3" t="s">
         <v>1561</v>
@@ -22907,7 +22907,7 @@
         <v>1620</v>
       </c>
       <c r="L534" s="3" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22939,7 +22939,7 @@
         <v>1561</v>
       </c>
       <c r="K535" s="3" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="L535" s="3">
         <v>1</v>
@@ -22965,13 +22965,13 @@
         <v>20112</v>
       </c>
       <c r="H536" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J536" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K536" s="3" t="s">
         <v>1620</v>
@@ -23000,7 +23000,7 @@
         <v>1905</v>
       </c>
       <c r="H537" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I537" s="3" t="s">
         <v>1661</v>
@@ -23035,10 +23035,10 @@
         <v>1658</v>
       </c>
       <c r="H538" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -23061,13 +23061,13 @@
         <v>7115</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H539" s="3" t="s">
         <v>1593</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K539" s="3" t="s">
         <v>1620</v>
@@ -23099,10 +23099,10 @@
         <v>1652</v>
       </c>
       <c r="H540" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -23160,7 +23160,7 @@
         <v>1561</v>
       </c>
       <c r="J542" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K542" s="3" t="s">
         <v>1620</v>
@@ -23195,7 +23195,7 @@
         <v>1642</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="544" spans="1:12">
@@ -23256,7 +23256,7 @@
         <v>1642</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K545" s="3" t="s">
         <v>1620</v>
@@ -23285,19 +23285,19 @@
         <v>9301</v>
       </c>
       <c r="G546" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H546" s="3" t="s">
         <v>1593</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K546" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L546" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -23320,13 +23320,13 @@
         <v>1330</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="548" spans="1:12">
@@ -23355,7 +23355,7 @@
         <v>1629</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K548" s="3" t="s">
         <v>1620</v>
@@ -23445,10 +23445,10 @@
         <v>1011</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -23474,10 +23474,10 @@
         <v>1572</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K552" s="3" t="s">
         <v>1620</v>
@@ -23506,10 +23506,10 @@
         <v>712</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="554" spans="1:12">
@@ -23532,7 +23532,7 @@
         <v>4428</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="I554" s="3" t="s">
         <v>1661</v>
@@ -23567,7 +23567,7 @@
         <v>1658</v>
       </c>
       <c r="H555" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="I555" s="3" t="s">
         <v>1661</v>
@@ -23625,13 +23625,13 @@
         <v>10011</v>
       </c>
       <c r="H557" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="I557" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J557" s="3" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -23657,7 +23657,7 @@
         <v>1648</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J558" s="3" t="s">
         <v>1658</v>
@@ -23692,10 +23692,10 @@
         <v>1600</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J559" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="560" spans="1:12">
@@ -23718,13 +23718,13 @@
         <v>10532</v>
       </c>
       <c r="H560" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I560" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J560" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="561" spans="1:12">
@@ -23747,10 +23747,10 @@
         <v>2</v>
       </c>
       <c r="H561" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K561" s="3" t="s">
         <v>1620</v>
@@ -23782,7 +23782,7 @@
         <v>1444</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="563" spans="1:12">
@@ -23811,7 +23811,7 @@
         <v>1564</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K563" s="3" t="s">
         <v>1620</v>
@@ -23840,7 +23840,7 @@
         <v>3131</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="565" spans="1:12">
@@ -23866,7 +23866,7 @@
         <v>1607</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="566" spans="1:12">
@@ -23889,7 +23889,7 @@
         <v>16915</v>
       </c>
       <c r="H566" s="3" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="567" spans="1:12">
@@ -23912,7 +23912,7 @@
         <v>9660</v>
       </c>
       <c r="H567" s="3" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="I567" s="3" t="s">
         <v>1661</v>
@@ -23976,7 +23976,7 @@
         <v>1625</v>
       </c>
       <c r="I569" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K569" s="3" t="s">
         <v>1620</v>
@@ -24034,13 +24034,13 @@
         <v>17</v>
       </c>
       <c r="G571" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H571" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K571" s="3" t="s">
         <v>1620</v>
@@ -24075,7 +24075,7 @@
         <v>1492</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="573" spans="1:12">
@@ -24098,7 +24098,7 @@
         <v>1912</v>
       </c>
       <c r="H573" s="3" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="574" spans="1:12">
@@ -24124,10 +24124,10 @@
         <v>1652</v>
       </c>
       <c r="H574" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="575" spans="1:12">
@@ -24156,7 +24156,7 @@
         <v>1648</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -24164,7 +24164,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>1391</v>
@@ -24179,13 +24179,13 @@
         <v>9107</v>
       </c>
       <c r="G576" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H576" s="3" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K576" s="3" t="s">
         <v>1620</v>
@@ -24214,13 +24214,13 @@
         <v>9107</v>
       </c>
       <c r="G577" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H577" s="3" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K577" s="3" t="s">
         <v>1620</v>
@@ -24252,7 +24252,7 @@
         <v>1648</v>
       </c>
       <c r="I578" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J578" s="3" t="s">
         <v>1658</v>
@@ -24278,7 +24278,7 @@
         <v>7157</v>
       </c>
       <c r="H579" s="3" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="I579" s="3" t="s">
         <v>1661</v>
@@ -24313,7 +24313,7 @@
         <v>1648</v>
       </c>
       <c r="I580" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K580" s="3" t="s">
         <v>1620</v>
@@ -24348,7 +24348,7 @@
         <v>1643</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="582" spans="1:12">
@@ -24371,10 +24371,10 @@
         <v>2517</v>
       </c>
       <c r="H582" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="I582" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K582" s="3" t="s">
         <v>1596</v>
@@ -24406,7 +24406,7 @@
         <v>1619</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="584" spans="1:12">
@@ -24432,7 +24432,7 @@
         <v>1619</v>
       </c>
       <c r="I584" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K584" s="3" t="s">
         <v>1620</v>
@@ -24461,19 +24461,19 @@
         <v>800</v>
       </c>
       <c r="H585" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I585" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J585" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="K585" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L585" s="3" t="s">
         <v>1827</v>
-      </c>
-      <c r="I585" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="J585" s="3" t="s">
-        <v>1997</v>
-      </c>
-      <c r="K585" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="L585" s="3" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="586" spans="1:12">
@@ -24496,7 +24496,7 @@
         <v>7831</v>
       </c>
       <c r="G586" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H586" s="3">
         <v>99</v>
@@ -24525,7 +24525,7 @@
         <v>9411</v>
       </c>
       <c r="G587" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H587" s="3">
         <v>99</v>
@@ -24560,7 +24560,7 @@
         <v>13333</v>
       </c>
       <c r="H588" s="3" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="I588" s="3" t="s">
         <v>1661</v>
@@ -24586,13 +24586,13 @@
         <v>19943</v>
       </c>
       <c r="H589" s="3" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="I589" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="J589" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="590" spans="1:12">
@@ -24618,7 +24618,7 @@
         <v>1562</v>
       </c>
       <c r="I590" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J590" s="3" t="s">
         <v>1652</v>
@@ -24644,10 +24644,10 @@
         <v>9507</v>
       </c>
       <c r="H591" s="3" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="J591" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="L591" s="3" t="s">
         <v>1564</v>
@@ -24673,7 +24673,7 @@
         <v>100</v>
       </c>
       <c r="H592" s="3" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="I592" s="3" t="s">
         <v>1661</v>
@@ -24699,10 +24699,10 @@
         <v>9401</v>
       </c>
       <c r="H593" s="3" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="J593" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K593" s="3" t="s">
         <v>1620</v>
@@ -24760,13 +24760,13 @@
         <v>4525</v>
       </c>
       <c r="H595" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="I595" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J595" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="596" spans="1:12">
@@ -24789,7 +24789,7 @@
         <v>14637</v>
       </c>
       <c r="H596" s="3" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="597" spans="1:12">
@@ -24815,7 +24815,7 @@
         <v>1641</v>
       </c>
       <c r="I597" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K597" s="3" t="s">
         <v>1620</v>
@@ -24847,10 +24847,10 @@
         <v>1572</v>
       </c>
       <c r="H598" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="599" spans="1:12">
@@ -24879,7 +24879,7 @@
         <v>1497</v>
       </c>
       <c r="I599" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="600" spans="1:12">
@@ -24887,7 +24887,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>1462</v>
@@ -24914,7 +24914,7 @@
         <v>1620</v>
       </c>
       <c r="L600" s="3" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="601" spans="1:12">
@@ -24937,13 +24937,13 @@
         <v>320</v>
       </c>
       <c r="G601" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H601" s="3" t="s">
         <v>1612</v>
       </c>
       <c r="I601" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K601" s="3" t="s">
         <v>1620</v>
@@ -25001,7 +25001,7 @@
         <v>5740</v>
       </c>
       <c r="H603" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I603" s="3" t="s">
         <v>1661</v>
@@ -25071,7 +25071,7 @@
         <v>1681</v>
       </c>
       <c r="I605" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -25100,7 +25100,7 @@
         <v>1576</v>
       </c>
       <c r="I606" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K606" s="3" t="s">
         <v>1620</v>
@@ -25129,10 +25129,10 @@
         <v>6307</v>
       </c>
       <c r="G607" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H607" s="3" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="I607" s="3" t="s">
         <v>1661</v>
@@ -25219,13 +25219,13 @@
         <v>5628</v>
       </c>
       <c r="H610" s="3" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="I610" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="J610" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K610" s="3" t="s">
         <v>1620</v>
@@ -25292,7 +25292,7 @@
         <v>1581</v>
       </c>
       <c r="I612" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="J612" s="3" t="s">
         <v>1658</v>
@@ -25324,13 +25324,13 @@
         <v>907</v>
       </c>
       <c r="G613" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H613" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I613" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K613" s="3" t="s">
         <v>1620</v>
@@ -25359,10 +25359,10 @@
         <v>19705</v>
       </c>
       <c r="G614" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H614" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I614" s="3" t="s">
         <v>1661</v>
@@ -25391,10 +25391,10 @@
         <v>1658</v>
       </c>
       <c r="H615" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I615" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K615" s="3" t="s">
         <v>1620</v>
@@ -25461,7 +25461,7 @@
         <v>1583</v>
       </c>
       <c r="I617" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="618" spans="1:12">
@@ -25484,10 +25484,10 @@
         <v>484</v>
       </c>
       <c r="H618" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I618" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="619" spans="1:12">
@@ -25513,10 +25513,10 @@
         <v>1658</v>
       </c>
       <c r="H619" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="620" spans="1:12">
@@ -25539,13 +25539,13 @@
         <v>1403</v>
       </c>
       <c r="H620" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="I620" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J620" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K620" s="3" t="s">
         <v>1620</v>
@@ -25577,10 +25577,10 @@
         <v>1669</v>
       </c>
       <c r="I621" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J621" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="622" spans="1:12">
@@ -25603,7 +25603,7 @@
         <v>1714</v>
       </c>
       <c r="H622" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I622" s="3" t="s">
         <v>1661</v>
@@ -25629,13 +25629,13 @@
         <v>1701</v>
       </c>
       <c r="G623" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="H623" s="3" t="s">
         <v>1644</v>
       </c>
       <c r="I623" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="624" spans="1:12">
@@ -25661,10 +25661,10 @@
         <v>1572</v>
       </c>
       <c r="H624" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="I624" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K624" s="3" t="s">
         <v>1620</v>
@@ -25696,7 +25696,7 @@
         <v>1567</v>
       </c>
       <c r="I625" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J625" s="3" t="s">
         <v>1658</v>
@@ -25722,7 +25722,7 @@
         <v>11821</v>
       </c>
       <c r="H626" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I626" s="3" t="s">
         <v>1661</v>
@@ -25751,10 +25751,10 @@
         <v>10115</v>
       </c>
       <c r="H627" s="3" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="I627" s="3" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="J627" s="3" t="s">
         <v>1652</v>
@@ -25786,7 +25786,7 @@
         <v>21802</v>
       </c>
       <c r="H628" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I628" s="3" t="s">
         <v>1579</v>
@@ -25824,13 +25824,13 @@
         <v>1572</v>
       </c>
       <c r="H629" s="3" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="I629" s="3" t="s">
         <v>1677</v>
       </c>
       <c r="J629" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K629" s="3" t="s">
         <v>1620</v>
@@ -25856,10 +25856,10 @@
         <v>34</v>
       </c>
       <c r="F630" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H630" s="3" t="s">
         <v>1835</v>
-      </c>
-      <c r="H630" s="3" t="s">
-        <v>1836</v>
       </c>
       <c r="I630" s="3" t="s">
         <v>1561</v>
@@ -25885,7 +25885,7 @@
         <v>403</v>
       </c>
       <c r="H631" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I631" s="3" t="s">
         <v>1661</v>
@@ -25911,13 +25911,13 @@
         <v>216</v>
       </c>
       <c r="H632" s="3" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="I632" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J632" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="633" spans="1:12">
@@ -25940,7 +25940,7 @@
         <v>20291</v>
       </c>
       <c r="H633" s="3" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="K633" s="3" t="s">
         <v>1596</v>
@@ -25981,7 +25981,7 @@
         <v>1596</v>
       </c>
       <c r="L634" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="635" spans="1:12">
@@ -26007,13 +26007,13 @@
         <v>1669</v>
       </c>
       <c r="I635" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J635" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="L635" s="3" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="636" spans="1:12">
@@ -26039,7 +26039,7 @@
         <v>1669</v>
       </c>
       <c r="I636" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J636" s="3" t="s">
         <v>1658</v>
@@ -26071,7 +26071,7 @@
         <v>1643</v>
       </c>
       <c r="I637" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K637" s="3" t="s">
         <v>1620</v>
@@ -26132,10 +26132,10 @@
         <v>1572</v>
       </c>
       <c r="H639" s="3" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="I639" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="640" spans="1:12">
@@ -26161,7 +26161,7 @@
         <v>1658</v>
       </c>
       <c r="H640" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="I640" s="3" t="s">
         <v>1661</v>
@@ -26187,10 +26187,10 @@
         <v>8420</v>
       </c>
       <c r="H641" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="I641" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K641" s="3" t="s">
         <v>1620</v>
@@ -26225,7 +26225,7 @@
         <v>1619</v>
       </c>
       <c r="I642" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K642" s="3" t="s">
         <v>1596</v>
@@ -26257,10 +26257,10 @@
         <v>1669</v>
       </c>
       <c r="I643" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J643" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K643" s="3" t="s">
         <v>1620</v>
@@ -26292,10 +26292,10 @@
         <v>1669</v>
       </c>
       <c r="I644" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J644" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K644" s="3" t="s">
         <v>1620</v>
@@ -26350,7 +26350,7 @@
         <v>5736</v>
       </c>
       <c r="H646" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="I646" s="3" t="s">
         <v>1661</v>
@@ -26376,13 +26376,13 @@
         <v>1210</v>
       </c>
       <c r="G647" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H647" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I647" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K647" s="3" t="s">
         <v>1620</v>
@@ -26411,10 +26411,10 @@
         <v>449</v>
       </c>
       <c r="H648" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="I648" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J648" s="3" t="s">
         <v>1658</v>
@@ -26449,10 +26449,10 @@
         <v>1658</v>
       </c>
       <c r="H649" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="I649" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="650" spans="1:12">
@@ -26478,7 +26478,7 @@
         <v>1606</v>
       </c>
       <c r="I650" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K650" s="3" t="s">
         <v>1620</v>
@@ -26507,19 +26507,19 @@
         <v>330</v>
       </c>
       <c r="G651" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H651" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="I651" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K651" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L651" s="3" t="s">
-        <v>1897</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="652" spans="1:12">
@@ -26542,13 +26542,13 @@
         <v>212</v>
       </c>
       <c r="G652" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H652" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="I652" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K652" s="3" t="s">
         <v>1620</v>
@@ -26577,10 +26577,10 @@
         <v>6018</v>
       </c>
       <c r="G653" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H653" s="3" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="I653" s="3" t="s">
         <v>1661</v>
@@ -26615,10 +26615,10 @@
         <v>1572</v>
       </c>
       <c r="H654" s="3" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="I654" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="655" spans="1:12">
@@ -26673,7 +26673,7 @@
         <v>1567</v>
       </c>
       <c r="I656" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="657" spans="1:12">
@@ -26696,10 +26696,10 @@
         <v>1840</v>
       </c>
       <c r="H657" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="I657" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="658" spans="1:12">
@@ -26722,13 +26722,13 @@
         <v>1510</v>
       </c>
       <c r="G658" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H658" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I658" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="659" spans="1:12">
@@ -26736,7 +26736,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>1509</v>
@@ -26754,7 +26754,7 @@
         <v>1648</v>
       </c>
       <c r="I659" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J659" s="3" t="s">
         <v>1658</v>
@@ -26786,13 +26786,13 @@
         <v>9574</v>
       </c>
       <c r="H660" s="3" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="I660" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J660" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K660" s="3" t="s">
         <v>1620</v>
@@ -26821,13 +26821,13 @@
         <v>4336</v>
       </c>
       <c r="H661" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="I661" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J661" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K661" s="3" t="s">
         <v>1620</v>
@@ -26856,7 +26856,7 @@
         <v>909</v>
       </c>
       <c r="H662" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I662" s="3" t="s">
         <v>1661</v>
@@ -26882,13 +26882,13 @@
         <v>5626</v>
       </c>
       <c r="H663" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="I663" s="3" t="s">
         <v>1672</v>
       </c>
       <c r="J663" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K663" s="3" t="s">
         <v>1620</v>
@@ -26920,10 +26920,10 @@
         <v>1578</v>
       </c>
       <c r="I664" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J664" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K664" s="3" t="s">
         <v>1620</v>
@@ -26952,10 +26952,10 @@
         <v>18026</v>
       </c>
       <c r="H665" s="3" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="J665" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K665" s="3" t="s">
         <v>1620</v>
@@ -26984,7 +26984,7 @@
         <v>5309</v>
       </c>
       <c r="H666" s="3" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="I666" s="3" t="s">
         <v>1661</v>
@@ -27022,13 +27022,13 @@
         <v>1576</v>
       </c>
       <c r="I667" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K667" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L667" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="668" spans="1:12">
@@ -27051,13 +27051,13 @@
         <v>3411</v>
       </c>
       <c r="G668" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H668" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="I668" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="L668" s="3" t="s">
         <v>1566</v>
@@ -27086,10 +27086,10 @@
         <v>1652</v>
       </c>
       <c r="H669" s="3" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="I669" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="L669" s="3" t="s">
         <v>1566</v>
@@ -27115,19 +27115,19 @@
         <v>1817</v>
       </c>
       <c r="H670" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="I670" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J670" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K670" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L670" s="3" t="s">
-        <v>1974</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="671" spans="1:12">
@@ -27150,10 +27150,10 @@
         <v>2119</v>
       </c>
       <c r="H671" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I671" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="672" spans="1:12">
@@ -27176,13 +27176,13 @@
         <v>1107</v>
       </c>
       <c r="G672" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H672" s="3" t="s">
         <v>1682</v>
       </c>
       <c r="I672" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K672" s="3" t="s">
         <v>1620</v>
@@ -27214,7 +27214,7 @@
         <v>1625</v>
       </c>
       <c r="I673" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J673" s="3" t="s">
         <v>1658</v>
@@ -27243,7 +27243,7 @@
         <v>1374</v>
       </c>
       <c r="I674" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="675" spans="1:12">
@@ -27266,10 +27266,10 @@
         <v>23632</v>
       </c>
       <c r="G675" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H675" s="3" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="676" spans="1:12">
@@ -27295,7 +27295,7 @@
         <v>1619</v>
       </c>
       <c r="I676" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="677" spans="1:12">
@@ -27321,7 +27321,7 @@
         <v>1644</v>
       </c>
       <c r="I677" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="678" spans="1:12">
@@ -27341,16 +27341,16 @@
         <v>607</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G678" s="3" t="s">
         <v>1572</v>
       </c>
       <c r="H678" s="3" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="I678" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="679" spans="1:12">
@@ -27373,10 +27373,10 @@
         <v>112</v>
       </c>
       <c r="H679" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I679" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J679" s="3" t="s">
         <v>1658</v>
@@ -27402,13 +27402,13 @@
         <v>5300</v>
       </c>
       <c r="H680" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I680" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J680" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K680" s="3" t="s">
         <v>1620</v>
@@ -27437,10 +27437,10 @@
         <v>2530</v>
       </c>
       <c r="H681" s="3" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="I681" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K681" s="3" t="s">
         <v>1620</v>
@@ -27469,13 +27469,13 @@
         <v>14303</v>
       </c>
       <c r="H682" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="I682" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J682" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="683" spans="1:12">
@@ -27501,10 +27501,10 @@
         <v>1566</v>
       </c>
       <c r="I683" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J683" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="K683" s="3" t="s">
         <v>1620</v>
@@ -27536,7 +27536,7 @@
         <v>1658</v>
       </c>
       <c r="H684" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="I684" s="3" t="s">
         <v>1661</v>
@@ -27574,7 +27574,7 @@
         <v>1492</v>
       </c>
       <c r="I685" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K685" s="3" t="s">
         <v>1596</v>
@@ -27603,13 +27603,13 @@
         <v>9626</v>
       </c>
       <c r="H686" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I686" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J686" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="687" spans="1:12">
@@ -27658,13 +27658,13 @@
         <v>8606</v>
       </c>
       <c r="H688" s="3" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="I688" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="J688" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="689" spans="1:12">
@@ -27687,7 +27687,7 @@
         <v>2294</v>
       </c>
       <c r="H689" s="3" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="690" spans="1:12">
@@ -27710,7 +27710,7 @@
         <v>25171</v>
       </c>
       <c r="H690" s="3" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="L690" s="3">
         <v>2</v>
@@ -27742,13 +27742,13 @@
         <v>1576</v>
       </c>
       <c r="I691" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K691" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="L691" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="692" spans="1:12">
@@ -27771,7 +27771,7 @@
         <v>10825</v>
       </c>
       <c r="H692" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I692" s="3" t="s">
         <v>1561</v>
@@ -27800,10 +27800,10 @@
         <v>6323</v>
       </c>
       <c r="G693" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H693" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I693" s="3" t="s">
         <v>1561</v>
@@ -27832,10 +27832,10 @@
         <v>1652</v>
       </c>
       <c r="H694" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I694" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K694" s="3" t="s">
         <v>1620</v>
@@ -27899,7 +27899,7 @@
         <v>837</v>
       </c>
       <c r="H696" s="3" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="I696" s="3" t="s">
         <v>1661</v>
@@ -27931,7 +27931,7 @@
         <v>1658</v>
       </c>
       <c r="H697" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="I697" s="3" t="s">
         <v>1661</v>
@@ -27969,7 +27969,7 @@
         <v>1625</v>
       </c>
       <c r="I698" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K698" s="3" t="s">
         <v>1620</v>
@@ -27998,13 +27998,13 @@
         <v>13217</v>
       </c>
       <c r="H699" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="I699" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J699" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="K699" s="3" t="s">
         <v>1673</v>
@@ -28033,7 +28033,7 @@
         <v>3863</v>
       </c>
       <c r="H700" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="I700" s="3" t="s">
         <v>1661</v>
@@ -28091,7 +28091,7 @@
         <v>1642</v>
       </c>
       <c r="I702" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="703" spans="1:12">
@@ -28114,13 +28114,13 @@
         <v>3845</v>
       </c>
       <c r="H703" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="I703" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="J703" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="704" spans="1:12">
@@ -28146,7 +28146,7 @@
         <v>1641</v>
       </c>
       <c r="I704" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="705" spans="1:12">
@@ -28169,13 +28169,13 @@
         <v>5917</v>
       </c>
       <c r="G705" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H705" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="I705" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K705" s="3" t="s">
         <v>1620</v>
@@ -28204,7 +28204,7 @@
         <v>218</v>
       </c>
       <c r="G706" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H706" s="3" t="s">
         <v>1624</v>
@@ -28239,10 +28239,10 @@
         <v>1350</v>
       </c>
       <c r="H707" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I707" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -28268,7 +28268,7 @@
         <v>1658</v>
       </c>
       <c r="H708" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="709" spans="1:12">
@@ -28297,7 +28297,7 @@
         <v>1617</v>
       </c>
       <c r="I709" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="710" spans="1:12">
@@ -28323,7 +28323,7 @@
         <v>1578</v>
       </c>
       <c r="I710" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J710" s="3" t="s">
         <v>1652</v>
@@ -28334,7 +28334,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>1377</v>
@@ -28352,10 +28352,10 @@
         <v>1578</v>
       </c>
       <c r="I711" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J711" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K711" s="3" t="s">
         <v>1620</v>
@@ -28387,10 +28387,10 @@
         <v>1658</v>
       </c>
       <c r="H712" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="I712" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="713" spans="1:12">
@@ -28413,7 +28413,7 @@
         <v>50</v>
       </c>
       <c r="H713" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="I713" s="3" t="s">
         <v>1672</v>
@@ -28445,7 +28445,7 @@
         <v>13014</v>
       </c>
       <c r="H714" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="715" spans="1:12">
@@ -28471,7 +28471,7 @@
         <v>1648</v>
       </c>
       <c r="I715" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J715" s="3" t="s">
         <v>1658</v>
@@ -28503,13 +28503,13 @@
         <v>1658</v>
       </c>
       <c r="H716" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="I716" s="3" t="s">
         <v>1661</v>
       </c>
       <c r="L716" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="717" spans="1:12">
@@ -28532,7 +28532,7 @@
         <v>3708</v>
       </c>
       <c r="H717" s="3" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="I717" s="3" t="s">
         <v>1579</v>
@@ -28561,10 +28561,10 @@
         <v>1562</v>
       </c>
       <c r="I718" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J718" s="3" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K718" s="3" t="s">
         <v>1620</v>
@@ -28599,7 +28599,7 @@
         <v>1619</v>
       </c>
       <c r="I719" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="720" spans="1:12">
@@ -28625,10 +28625,10 @@
         <v>1658</v>
       </c>
       <c r="H720" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="I720" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="721" spans="1:12">
@@ -28651,10 +28651,10 @@
         <v>728</v>
       </c>
       <c r="H721" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="I721" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="722" spans="1:12">
@@ -28680,7 +28680,7 @@
         <v>1645</v>
       </c>
       <c r="I722" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K722" s="3" t="s">
         <v>1620</v>
@@ -28709,13 +28709,13 @@
         <v>5300</v>
       </c>
       <c r="H723" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I723" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J723" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K723" s="3" t="s">
         <v>1620</v>
@@ -28744,7 +28744,7 @@
         <v>591</v>
       </c>
       <c r="H724" s="3" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="K724" s="3" t="s">
         <v>1620</v>
@@ -28773,7 +28773,7 @@
         <v>3120</v>
       </c>
       <c r="H725" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I725" s="3" t="s">
         <v>1661</v>
@@ -28802,10 +28802,10 @@
         <v>1572</v>
       </c>
       <c r="H726" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="I726" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K726" s="3" t="s">
         <v>1620</v>
@@ -28834,10 +28834,10 @@
         <v>2415</v>
       </c>
       <c r="H727" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="I727" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="728" spans="1:12">
@@ -28863,7 +28863,7 @@
         <v>1572</v>
       </c>
       <c r="H728" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="I728" s="3" t="s">
         <v>1672</v>
@@ -28889,13 +28889,13 @@
         <v>1340</v>
       </c>
       <c r="G729" s="3" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="H729" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I729" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K729" s="3" t="s">
         <v>1620</v>
@@ -28924,7 +28924,7 @@
         <v>7207</v>
       </c>
       <c r="H730" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I730" s="3" t="s">
         <v>1561</v>
@@ -28953,7 +28953,7 @@
         <v>1641</v>
       </c>
       <c r="I731" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="732" spans="1:12">
@@ -28976,13 +28976,13 @@
         <v>5209</v>
       </c>
       <c r="H732" s="3" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="I732" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J732" s="3" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="L732" s="3">
         <v>202</v>
@@ -29008,16 +29008,16 @@
         <v>6501</v>
       </c>
       <c r="H733" s="3" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="I733" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="K733" s="3" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="L733" s="3" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="734" spans="1:12">
@@ -29040,10 +29040,10 @@
         <v>1401</v>
       </c>
       <c r="H734" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I734" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="735" spans="1:12">
@@ -29066,7 +29066,7 @@
         <v>20291</v>
       </c>
       <c r="H735" s="3" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="K735" s="3" t="s">
         <v>1596</v>
@@ -29095,7 +29095,7 @@
         <v>4503</v>
       </c>
       <c r="H736" s="3" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="I736" s="3" t="s">
         <v>1579</v>
@@ -29130,7 +29130,7 @@
         <v>1658</v>
       </c>
       <c r="H737" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="I737" s="3" t="s">
         <v>1661</v>
@@ -29162,7 +29162,7 @@
         <v>1860</v>
       </c>
       <c r="H738" s="3" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="I738" s="3" t="s">
         <v>1661</v>
@@ -29214,7 +29214,7 @@
         <v>9129</v>
       </c>
       <c r="H740" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I740" s="3" t="s">
         <v>1561</v>
@@ -29243,10 +29243,10 @@
         <v>1652</v>
       </c>
       <c r="H741" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="I741" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="742" spans="1:12">
@@ -29272,7 +29272,7 @@
         <v>1669</v>
       </c>
       <c r="I742" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J742" s="3" t="s">
         <v>1658</v>
@@ -29298,13 +29298,13 @@
         <v>1300</v>
       </c>
       <c r="G743" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H743" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I743" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K743" s="3" t="s">
         <v>1620</v>
@@ -29333,10 +29333,10 @@
         <v>1606</v>
       </c>
       <c r="H744" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="I744" s="3" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="745" spans="1:12">
@@ -29359,13 +29359,13 @@
         <v>20917</v>
       </c>
       <c r="G745" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H745" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I745" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K745" s="3" t="s">
         <v>1620</v>
@@ -29394,10 +29394,10 @@
         <v>905</v>
       </c>
       <c r="H746" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="I746" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="748" spans="1:12">
